--- a/5월의 Miracle.xlsx
+++ b/5월의 Miracle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,6 +457,18 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,18 +476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,48 +765,48 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -887,7 +887,7 @@
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
